--- a/sample_students_sorted.xlsx
+++ b/sample_students_sorted.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>saphine</t>
+          <t>sapphire</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>saphine</t>
+          <t>sapphire</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>saphine</t>
+          <t>sapphire</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>saphine</t>
+          <t>sapphire</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>saphine</t>
+          <t>sapphire</t>
         </is>
       </c>
     </row>

--- a/sample_students_sorted.xlsx
+++ b/sample_students_sorted.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>agat</t>
+          <t>agate</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>agat</t>
+          <t>agate</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>agat</t>
+          <t>agate</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>agat</t>
+          <t>agate</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>agat</t>
+          <t>agate</t>
         </is>
       </c>
     </row>
